--- a/src/main/webapp/WEB-INF/template/采购申请单导入模板-录入.xlsx
+++ b/src/main/webapp/WEB-INF/template/采购申请单导入模板-录入.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DDEF8E-4B6D-4D03-9082-4F9611C35408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4327E5B-BECB-4E43-81E5-3B5319EACDAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1668" yWindow="4632" windowWidth="16296" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>SKU编号</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>供应商</t>
-  </si>
-  <si>
-    <t>采购数量</t>
   </si>
   <si>
     <t>实物返数量</t>
@@ -42,6 +39,14 @@
   </si>
   <si>
     <t>含税单价</t>
+  </si>
+  <si>
+    <t>商品数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠品数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -396,19 +401,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" activeCellId="1" sqref="A2:XFD2 A2:XFD10"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="37.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -419,16 +429,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
